--- a/dodep.xlsx
+++ b/dodep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katusha/Desktop/Shend-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C513BC-4411-CB48-9E54-5504A29CC855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABC1A96-42FF-8D4A-85FE-BA0AF1FEFC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11880" yWindow="500" windowWidth="16640" windowHeight="16100" xr2:uid="{2FA25CED-84E7-2A46-9CA8-F7C257DFC5C8}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Андреев Сергей Николаевич</t>
   </si>
   <si>
-    <t>Жидченко Алина Андреевна</t>
-  </si>
-  <si>
     <t>Капустин Артем Владимирович</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Жидилева Ангелина Алексеевна</t>
+  </si>
+  <si>
+    <t>Жидченко Алинаа Андреевна</t>
   </si>
 </sst>
 </file>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3680F37E-21D7-EA4D-B300-7D6DA2C494EA}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,87 +477,87 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
